--- a/com.lms/DataFiles/Usercreation.xlsx
+++ b/com.lms/DataFiles/Usercreation.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f8e3e929affeb56/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CBFC67F-3029-4075-A340-C1842FE64BD3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{073FBD47-012C-4C3C-AB44-A136658DD41D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="4470" xr2:uid="{72B6749D-641B-443D-A0B3-CDD521AD9991}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11430" windowHeight="2505" xr2:uid="{72B6749D-641B-443D-A0B3-CDD521AD9991}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
